--- a/sample_national_ids.xlsx
+++ b/sample_national_ids.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevTools\Projects\Nokhbegan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8594"/>
   </bookViews>
   <sheets>
     <sheet name="کدهای ملی مجاز" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>کد ملی</t>
   </si>
@@ -25,52 +30,34 @@
     <t>کلاس</t>
   </si>
   <si>
-    <t>0123456789</t>
-  </si>
-  <si>
     <t>علی احمدی</t>
   </si>
   <si>
     <t>۸۰۱</t>
   </si>
   <si>
-    <t>1234567890</t>
-  </si>
-  <si>
     <t>فاطمه رضایی</t>
   </si>
   <si>
     <t>۸۰۲</t>
   </si>
   <si>
-    <t>2345678901</t>
-  </si>
-  <si>
     <t>محمد حسینی</t>
   </si>
   <si>
     <t>۸۰۳</t>
   </si>
   <si>
-    <t>3456789012</t>
-  </si>
-  <si>
     <t>زهرا محمدی</t>
   </si>
   <si>
     <t>۸۰۴</t>
   </si>
   <si>
-    <t>4567890123</t>
-  </si>
-  <si>
     <t>حسن علوی</t>
   </si>
   <si>
     <t>۸۰۵</t>
-  </si>
-  <si>
-    <t>5678901234</t>
   </si>
   <si>
     <t>مریم کریمی</t>
@@ -133,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,16 +195,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -264,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +329,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,19 +505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.149999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,146 +529,146 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2222222222</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>3333333333</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>4444444444</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>5555555555</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>6666666666</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>7777777777</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
